--- a/Tested_excek.xlsx
+++ b/Tested_excek.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows\Documents\side_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0096D8D9-BA40-4548-A720-46F01851CC75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1C5F6E7-F20A-4220-A8DE-494BDE98B652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-3495" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6600" yWindow="2625" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3374,16 +3374,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -3690,8 +3687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AV6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AQ4" sqref="AQ4"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="X5" sqref="X5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3727,7 +3724,7 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
@@ -3739,7 +3736,7 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
@@ -3820,7 +3817,7 @@
       <c r="AO1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="4" t="s">
+      <c r="AP1" s="1" t="s">
         <v>41</v>
       </c>
       <c r="AQ1" s="1" t="s">
@@ -3873,7 +3870,7 @@
       <c r="J2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="K2" s="3"/>
+      <c r="K2" s="2"/>
       <c r="L2" s="2" t="s">
         <v>58</v>
       </c>
@@ -3883,7 +3880,7 @@
       <c r="N2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="2" t="s">
         <v>61</v>
       </c>
       <c r="P2" s="2" t="s">
@@ -3964,7 +3961,7 @@
       <c r="AO2" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="AP2" s="3"/>
+      <c r="AP2" s="2"/>
       <c r="AQ2" s="2" t="s">
         <v>81</v>
       </c>
@@ -4015,7 +4012,7 @@
       <c r="J3" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="K3" s="3"/>
+      <c r="K3" s="2"/>
       <c r="L3" s="2" t="s">
         <v>100</v>
       </c>
@@ -4025,7 +4022,7 @@
       <c r="N3" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="2" t="s">
         <v>103</v>
       </c>
       <c r="P3" s="2" t="s">
@@ -4106,7 +4103,7 @@
       <c r="AO3" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="AP3" s="3"/>
+      <c r="AP3" s="2"/>
       <c r="AQ3" s="2" t="s">
         <v>81</v>
       </c>
@@ -4157,7 +4154,7 @@
       <c r="J4" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="K4" s="3"/>
+      <c r="K4" s="2"/>
       <c r="L4" s="2" t="s">
         <v>141</v>
       </c>
@@ -4167,7 +4164,7 @@
       <c r="N4" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="O4" s="2" t="s">
         <v>144</v>
       </c>
       <c r="P4" s="2" t="s">
@@ -4248,7 +4245,7 @@
       <c r="AO4" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="AP4" s="3"/>
+      <c r="AP4" s="2"/>
       <c r="AQ4" s="2" t="s">
         <v>81</v>
       </c>
@@ -4368,7 +4365,7 @@
       <c r="AO5" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="AP5" s="3"/>
+      <c r="AP5" s="2"/>
       <c r="AQ5" s="2" t="s">
         <v>81</v>
       </c>
